--- a/natmiOut/OldD4/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Artn</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.00433799651227</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H2">
-        <v>1.00433799651227</v>
+        <v>3.363791</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.466133194611753</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5564217608170711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50950410731327</v>
+        <v>1.986848333333333</v>
       </c>
       <c r="N2">
-        <v>1.50950410731327</v>
+        <v>5.960545</v>
       </c>
       <c r="O2">
-        <v>0.283036365934703</v>
+        <v>0.3070436244112906</v>
       </c>
       <c r="P2">
-        <v>0.283036365934703</v>
+        <v>0.3340680476987617</v>
       </c>
       <c r="Q2">
-        <v>1.516052330866052</v>
+        <v>2.227780847343888</v>
       </c>
       <c r="R2">
-        <v>1.516052330866052</v>
+        <v>20.050027626095</v>
       </c>
       <c r="S2">
-        <v>0.283036365934703</v>
+        <v>0.1431232255320061</v>
       </c>
       <c r="T2">
-        <v>0.283036365934703</v>
+        <v>0.1858827313332663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.00433799651227</v>
+        <v>1.121263666666666</v>
       </c>
       <c r="H3">
-        <v>1.00433799651227</v>
+        <v>3.363791</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.466133194611753</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5564217608170711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.8946188059645</v>
+        <v>2.913661333333334</v>
       </c>
       <c r="N3">
-        <v>2.8946188059645</v>
+        <v>8.740984000000001</v>
       </c>
       <c r="O3">
-        <v>0.5427493596321922</v>
+        <v>0.4502714782425266</v>
       </c>
       <c r="P3">
-        <v>0.5427493596321922</v>
+        <v>0.4899020911420204</v>
       </c>
       <c r="Q3">
-        <v>2.907175652249125</v>
+        <v>3.266982590038222</v>
       </c>
       <c r="R3">
-        <v>2.907175652249125</v>
+        <v>29.402843310344</v>
       </c>
       <c r="S3">
-        <v>0.5427493596321922</v>
+        <v>0.2098864825957453</v>
       </c>
       <c r="T3">
-        <v>0.5427493596321922</v>
+        <v>0.2725921841812082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.121263666666666</v>
+      </c>
+      <c r="H4">
+        <v>3.363791</v>
+      </c>
+      <c r="I4">
+        <v>0.466133194611753</v>
+      </c>
+      <c r="J4">
+        <v>0.5564217608170711</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.5703895</v>
+      </c>
+      <c r="N4">
+        <v>3.140779</v>
+      </c>
+      <c r="O4">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P4">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q4">
+        <v>1.760820688864833</v>
+      </c>
+      <c r="R4">
+        <v>10.564924133189</v>
+      </c>
+      <c r="S4">
+        <v>0.1131234864840015</v>
+      </c>
+      <c r="T4">
+        <v>0.09794684530259648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.113219</v>
+      </c>
+      <c r="H5">
+        <v>0.339657</v>
+      </c>
+      <c r="I5">
+        <v>0.04706755041625482</v>
+      </c>
+      <c r="J5">
+        <v>0.05618439017579984</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.986848333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.960545</v>
+      </c>
+      <c r="O5">
+        <v>0.3070436244112906</v>
+      </c>
+      <c r="P5">
+        <v>0.3340680476987617</v>
+      </c>
+      <c r="Q5">
+        <v>0.2249489814516667</v>
+      </c>
+      <c r="R5">
+        <v>2.024540833065</v>
+      </c>
+      <c r="S5">
+        <v>0.01445179127196803</v>
+      </c>
+      <c r="T5">
+        <v>0.01876940953717494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.113219</v>
+      </c>
+      <c r="H6">
+        <v>0.339657</v>
+      </c>
+      <c r="I6">
+        <v>0.04706755041625482</v>
+      </c>
+      <c r="J6">
+        <v>0.05618439017579984</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.913661333333334</v>
+      </c>
+      <c r="N6">
+        <v>8.740984000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4502714782425266</v>
+      </c>
+      <c r="P6">
+        <v>0.4899020911420204</v>
+      </c>
+      <c r="Q6">
+        <v>0.3298818224986667</v>
+      </c>
+      <c r="R6">
+        <v>2.968936402488</v>
+      </c>
+      <c r="S6">
+        <v>0.0211931755031817</v>
+      </c>
+      <c r="T6">
+        <v>0.02752485023666353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.113219</v>
+      </c>
+      <c r="H7">
+        <v>0.339657</v>
+      </c>
+      <c r="I7">
+        <v>0.04706755041625482</v>
+      </c>
+      <c r="J7">
+        <v>0.05618439017579984</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.5703895</v>
+      </c>
+      <c r="N7">
+        <v>3.140779</v>
+      </c>
+      <c r="O7">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P7">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q7">
+        <v>0.1777979288005</v>
+      </c>
+      <c r="R7">
+        <v>1.066787572803</v>
+      </c>
+      <c r="S7">
+        <v>0.01142258364110508</v>
+      </c>
+      <c r="T7">
+        <v>0.009890130401961362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.00433799651227</v>
-      </c>
-      <c r="H4">
-        <v>1.00433799651227</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.929128530678076</v>
-      </c>
-      <c r="N4">
-        <v>0.929128530678076</v>
-      </c>
-      <c r="O4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="P4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="Q4">
-        <v>0.9331590870036081</v>
-      </c>
-      <c r="R4">
-        <v>0.9331590870036081</v>
-      </c>
-      <c r="S4">
-        <v>0.1742142744331047</v>
-      </c>
-      <c r="T4">
-        <v>0.1742142744331047</v>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1.170975</v>
+      </c>
+      <c r="H8">
+        <v>2.34195</v>
+      </c>
+      <c r="I8">
+        <v>0.4867992549719922</v>
+      </c>
+      <c r="J8">
+        <v>0.3873938490071291</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.986848333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.960545</v>
+      </c>
+      <c r="O8">
+        <v>0.3070436244112906</v>
+      </c>
+      <c r="P8">
+        <v>0.3340680476987617</v>
+      </c>
+      <c r="Q8">
+        <v>2.326549727125</v>
+      </c>
+      <c r="R8">
+        <v>13.95929836275</v>
+      </c>
+      <c r="S8">
+        <v>0.1494686076073165</v>
+      </c>
+      <c r="T8">
+        <v>0.1294159068283205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>1.170975</v>
+      </c>
+      <c r="H9">
+        <v>2.34195</v>
+      </c>
+      <c r="I9">
+        <v>0.4867992549719922</v>
+      </c>
+      <c r="J9">
+        <v>0.3873938490071291</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.913661333333334</v>
+      </c>
+      <c r="N9">
+        <v>8.740984000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4502714782425266</v>
+      </c>
+      <c r="P9">
+        <v>0.4899020911420204</v>
+      </c>
+      <c r="Q9">
+        <v>3.411824579800001</v>
+      </c>
+      <c r="R9">
+        <v>20.4709474788</v>
+      </c>
+      <c r="S9">
+        <v>0.2191918201435995</v>
+      </c>
+      <c r="T9">
+        <v>0.1897850567241487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>1.170975</v>
+      </c>
+      <c r="H10">
+        <v>2.34195</v>
+      </c>
+      <c r="I10">
+        <v>0.4867992549719922</v>
+      </c>
+      <c r="J10">
+        <v>0.3873938490071291</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.5703895</v>
+      </c>
+      <c r="N10">
+        <v>3.140779</v>
+      </c>
+      <c r="O10">
+        <v>0.2426848973461828</v>
+      </c>
+      <c r="P10">
+        <v>0.1760298611592177</v>
+      </c>
+      <c r="Q10">
+        <v>1.8388868447625</v>
+      </c>
+      <c r="R10">
+        <v>7.355547379050001</v>
+      </c>
+      <c r="S10">
+        <v>0.1181388272210762</v>
+      </c>
+      <c r="T10">
+        <v>0.0681928854546599</v>
       </c>
     </row>
   </sheetData>
